--- a/data/134/IFO/old/ifo Export Expectations.xlsx
+++ b/data/134/IFO/old/ifo Export Expectations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Presse\Exporterwartungen\2021\09 September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Presse\Exporterwartungen\2021\12  Dezember\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,6 +135,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -479,7 +482,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H367" sqref="H367"/>
+      <selection pane="bottomLeft" activeCell="L370" sqref="L370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,7 +553,7 @@
       <c r="A10" s="13">
         <v>33269</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="16">
         <v>-11.788069999999999</v>
       </c>
     </row>
@@ -558,7 +561,7 @@
       <c r="A11" s="13">
         <v>33297</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="16">
         <v>-5.9468899999999998</v>
       </c>
     </row>
@@ -566,7 +569,7 @@
       <c r="A12" s="13">
         <v>33328</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="16">
         <v>-8.0904900000000008</v>
       </c>
     </row>
@@ -574,7 +577,7 @@
       <c r="A13" s="13">
         <v>33358</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="16">
         <v>-4.9242600000000003</v>
       </c>
     </row>
@@ -582,7 +585,7 @@
       <c r="A14" s="13">
         <v>33389</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="16">
         <v>-4.78301</v>
       </c>
     </row>
@@ -590,7 +593,7 @@
       <c r="A15" s="13">
         <v>33419</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="16">
         <v>-3.19577</v>
       </c>
     </row>
@@ -598,7 +601,7 @@
       <c r="A16" s="13">
         <v>33450</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="16">
         <v>-0.43985999999999997</v>
       </c>
     </row>
@@ -606,7 +609,7 @@
       <c r="A17" s="13">
         <v>33481</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="16">
         <v>-0.88639000000000001</v>
       </c>
     </row>
@@ -614,7 +617,7 @@
       <c r="A18" s="13">
         <v>33511</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="16">
         <v>1.5407599999999999</v>
       </c>
     </row>
@@ -622,7 +625,7 @@
       <c r="A19" s="13">
         <v>33542</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="16">
         <v>3.0583</v>
       </c>
     </row>
@@ -630,7 +633,7 @@
       <c r="A20" s="13">
         <v>33572</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="16">
         <v>3.8321399999999999</v>
       </c>
     </row>
@@ -638,7 +641,7 @@
       <c r="A21" s="13">
         <v>33603</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="16">
         <v>1.78352</v>
       </c>
     </row>
@@ -646,7 +649,7 @@
       <c r="A22" s="13">
         <v>33634</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="16">
         <v>-0.12436999999999999</v>
       </c>
     </row>
@@ -654,7 +657,7 @@
       <c r="A23" s="13">
         <v>33663</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="16">
         <v>-2.2047699999999999</v>
       </c>
     </row>
@@ -662,7 +665,7 @@
       <c r="A24" s="13">
         <v>33694</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="16">
         <v>6.3460000000000003E-2</v>
       </c>
     </row>
@@ -670,7 +673,7 @@
       <c r="A25" s="13">
         <v>33724</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="16">
         <v>-0.84009</v>
       </c>
     </row>
@@ -678,7 +681,7 @@
       <c r="A26" s="13">
         <v>33755</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="16">
         <v>0.34954000000000002</v>
       </c>
     </row>
@@ -686,7 +689,7 @@
       <c r="A27" s="13">
         <v>33785</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="16">
         <v>3.1126100000000001</v>
       </c>
     </row>
@@ -694,7 +697,7 @@
       <c r="A28" s="13">
         <v>33816</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="16">
         <v>0.77512000000000003</v>
       </c>
     </row>
@@ -702,7 +705,7 @@
       <c r="A29" s="13">
         <v>33847</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="16">
         <v>-5.81419</v>
       </c>
     </row>
@@ -710,7 +713,7 @@
       <c r="A30" s="13">
         <v>33877</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="16">
         <v>-10.562939999999999</v>
       </c>
     </row>
@@ -718,7 +721,7 @@
       <c r="A31" s="13">
         <v>33908</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="16">
         <v>-16.961369999999999</v>
       </c>
     </row>
@@ -726,7 +729,7 @@
       <c r="A32" s="13">
         <v>33938</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="16">
         <v>-17.38542</v>
       </c>
     </row>
@@ -734,7 +737,7 @@
       <c r="A33" s="13">
         <v>33969</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="16">
         <v>-14.55438</v>
       </c>
     </row>
@@ -742,7 +745,7 @@
       <c r="A34" s="13">
         <v>34000</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="16">
         <v>-10.748379999999999</v>
       </c>
     </row>
@@ -750,7 +753,7 @@
       <c r="A35" s="13">
         <v>34028</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="16">
         <v>-15.33948</v>
       </c>
     </row>
@@ -758,7 +761,7 @@
       <c r="A36" s="13">
         <v>34059</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="16">
         <v>-11.71238</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
       <c r="A37" s="13">
         <v>34089</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="16">
         <v>-13.464980000000001</v>
       </c>
     </row>
@@ -774,7 +777,7 @@
       <c r="A38" s="13">
         <v>34120</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="16">
         <v>-13.464399999999999</v>
       </c>
     </row>
@@ -782,7 +785,7 @@
       <c r="A39" s="13">
         <v>34150</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="16">
         <v>-9.3676700000000004</v>
       </c>
     </row>
@@ -790,7 +793,7 @@
       <c r="A40" s="13">
         <v>34181</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="16">
         <v>-9.8677700000000002</v>
       </c>
     </row>
@@ -798,7 +801,7 @@
       <c r="A41" s="13">
         <v>34212</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="16">
         <v>-5.7821100000000003</v>
       </c>
     </row>
@@ -806,7 +809,7 @@
       <c r="A42" s="13">
         <v>34242</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="16">
         <v>-4.7997800000000002</v>
       </c>
     </row>
@@ -814,7 +817,7 @@
       <c r="A43" s="13">
         <v>34273</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="16">
         <v>-2.8958699999999999</v>
       </c>
     </row>
@@ -822,7 +825,7 @@
       <c r="A44" s="13">
         <v>34303</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="16">
         <v>-1.72306</v>
       </c>
     </row>
@@ -830,7 +833,7 @@
       <c r="A45" s="13">
         <v>34334</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="16">
         <v>1.0266</v>
       </c>
     </row>
@@ -838,7 +841,7 @@
       <c r="A46" s="13">
         <v>34365</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="16">
         <v>5.3781400000000001</v>
       </c>
     </row>
@@ -846,7 +849,7 @@
       <c r="A47" s="13">
         <v>34393</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="16">
         <v>9.4142700000000001</v>
       </c>
     </row>
@@ -854,7 +857,7 @@
       <c r="A48" s="13">
         <v>34424</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="16">
         <v>9.5267700000000008</v>
       </c>
     </row>
@@ -862,7 +865,7 @@
       <c r="A49" s="13">
         <v>34454</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="16">
         <v>15.114839999999999</v>
       </c>
     </row>
@@ -870,7 +873,7 @@
       <c r="A50" s="13">
         <v>34485</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="16">
         <v>14.012259999999999</v>
       </c>
     </row>
@@ -878,7 +881,7 @@
       <c r="A51" s="13">
         <v>34515</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="16">
         <v>12.262840000000001</v>
       </c>
     </row>
@@ -886,7 +889,7 @@
       <c r="A52" s="13">
         <v>34546</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="16">
         <v>13.49145</v>
       </c>
     </row>
@@ -894,7 +897,7 @@
       <c r="A53" s="13">
         <v>34577</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="16">
         <v>12.099819999999999</v>
       </c>
     </row>
@@ -902,7 +905,7 @@
       <c r="A54" s="13">
         <v>34607</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="16">
         <v>15.80979</v>
       </c>
     </row>
@@ -910,7 +913,7 @@
       <c r="A55" s="13">
         <v>34638</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="16">
         <v>16.079249999999998</v>
       </c>
     </row>
@@ -918,7 +921,7 @@
       <c r="A56" s="13">
         <v>34668</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="16">
         <v>17.943470000000001</v>
       </c>
     </row>
@@ -926,7 +929,7 @@
       <c r="A57" s="13">
         <v>34699</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="16">
         <v>21.672049999999999</v>
       </c>
     </row>
@@ -934,7 +937,7 @@
       <c r="A58" s="13">
         <v>34730</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="16">
         <v>13.68</v>
       </c>
     </row>
@@ -942,7 +945,7 @@
       <c r="A59" s="13">
         <v>34758</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="16">
         <v>12.18126</v>
       </c>
     </row>
@@ -950,7 +953,7 @@
       <c r="A60" s="13">
         <v>34789</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="16">
         <v>8.7643699999999995</v>
       </c>
     </row>
@@ -958,7 +961,7 @@
       <c r="A61" s="13">
         <v>34819</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="16">
         <v>3.6702400000000002</v>
       </c>
     </row>
@@ -966,7 +969,7 @@
       <c r="A62" s="13">
         <v>34850</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="16">
         <v>6.3408699999999998</v>
       </c>
     </row>
@@ -974,7 +977,7 @@
       <c r="A63" s="13">
         <v>34880</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="16">
         <v>6.8758400000000002</v>
       </c>
     </row>
@@ -982,7 +985,7 @@
       <c r="A64" s="13">
         <v>34911</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="16">
         <v>6.6124099999999997</v>
       </c>
     </row>
@@ -990,7 +993,7 @@
       <c r="A65" s="13">
         <v>34942</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="16">
         <v>8.1157299999999992</v>
       </c>
     </row>
@@ -998,7 +1001,7 @@
       <c r="A66" s="13">
         <v>34972</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="16">
         <v>6.5145</v>
       </c>
     </row>
@@ -1006,7 +1009,7 @@
       <c r="A67" s="13">
         <v>35003</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="16">
         <v>6.1487800000000004</v>
       </c>
     </row>
@@ -1014,7 +1017,7 @@
       <c r="A68" s="13">
         <v>35033</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="16">
         <v>4.4324300000000001</v>
       </c>
     </row>
@@ -1022,7 +1025,7 @@
       <c r="A69" s="13">
         <v>35064</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="16">
         <v>7.3582299999999998</v>
       </c>
     </row>
@@ -1030,7 +1033,7 @@
       <c r="A70" s="13">
         <v>35095</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="16">
         <v>3.3155800000000002</v>
       </c>
     </row>
@@ -1038,7 +1041,7 @@
       <c r="A71" s="13">
         <v>35124</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="16">
         <v>2.9659800000000001</v>
       </c>
     </row>
@@ -1046,7 +1049,7 @@
       <c r="A72" s="13">
         <v>35155</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="16">
         <v>2.9132600000000002</v>
       </c>
     </row>
@@ -1054,7 +1057,7 @@
       <c r="A73" s="13">
         <v>35185</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="16">
         <v>3.2671399999999999</v>
       </c>
     </row>
@@ -1062,7 +1065,7 @@
       <c r="A74" s="13">
         <v>35216</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="16">
         <v>5.8281299999999998</v>
       </c>
     </row>
@@ -1070,7 +1073,7 @@
       <c r="A75" s="13">
         <v>35246</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="16">
         <v>5.2085699999999999</v>
       </c>
     </row>
@@ -1078,7 +1081,7 @@
       <c r="A76" s="13">
         <v>35277</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="16">
         <v>6.4353400000000001</v>
       </c>
     </row>
@@ -1086,7 +1089,7 @@
       <c r="A77" s="13">
         <v>35308</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="16">
         <v>6.9107799999999999</v>
       </c>
     </row>
@@ -1094,7 +1097,7 @@
       <c r="A78" s="13">
         <v>35338</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="16">
         <v>9.3361199999999993</v>
       </c>
     </row>
@@ -1102,7 +1105,7 @@
       <c r="A79" s="13">
         <v>35369</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="16">
         <v>9.1306700000000003</v>
       </c>
     </row>
@@ -1110,7 +1113,7 @@
       <c r="A80" s="13">
         <v>35399</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="16">
         <v>12.20557</v>
       </c>
     </row>
@@ -1118,7 +1121,7 @@
       <c r="A81" s="13">
         <v>35430</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="16">
         <v>11.148770000000001</v>
       </c>
     </row>
@@ -1126,7 +1129,7 @@
       <c r="A82" s="13">
         <v>35461</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="16">
         <v>15.29426</v>
       </c>
     </row>
@@ -1134,7 +1137,7 @@
       <c r="A83" s="13">
         <v>35489</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="16">
         <v>14.03853</v>
       </c>
     </row>
@@ -1142,7 +1145,7 @@
       <c r="A84" s="13">
         <v>35520</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="16">
         <v>14.00562</v>
       </c>
     </row>
@@ -1150,7 +1153,7 @@
       <c r="A85" s="13">
         <v>35550</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="16">
         <v>13.668900000000001</v>
       </c>
     </row>
@@ -1158,7 +1161,7 @@
       <c r="A86" s="13">
         <v>35581</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="16">
         <v>10.01291</v>
       </c>
     </row>
@@ -1166,7 +1169,7 @@
       <c r="A87" s="13">
         <v>35611</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="16">
         <v>13.15395</v>
       </c>
     </row>
@@ -1174,7 +1177,7 @@
       <c r="A88" s="13">
         <v>35642</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="16">
         <v>14.087999999999999</v>
       </c>
     </row>
@@ -1182,7 +1185,7 @@
       <c r="A89" s="13">
         <v>35673</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="16">
         <v>14.75447</v>
       </c>
     </row>
@@ -1190,7 +1193,7 @@
       <c r="A90" s="13">
         <v>35703</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="16">
         <v>18.25226</v>
       </c>
     </row>
@@ -1198,7 +1201,7 @@
       <c r="A91" s="13">
         <v>35734</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="16">
         <v>15.32423</v>
       </c>
     </row>
@@ -1206,7 +1209,7 @@
       <c r="A92" s="13">
         <v>35764</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="16">
         <v>13.28041</v>
       </c>
     </row>
@@ -1214,7 +1217,7 @@
       <c r="A93" s="13">
         <v>35795</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="16">
         <v>13.206619999999999</v>
       </c>
     </row>
@@ -1222,7 +1225,7 @@
       <c r="A94" s="13">
         <v>35826</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="16">
         <v>13.148210000000001</v>
       </c>
     </row>
@@ -1230,7 +1233,7 @@
       <c r="A95" s="13">
         <v>35854</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="16">
         <v>13.05757</v>
       </c>
     </row>
@@ -1238,7 +1241,7 @@
       <c r="A96" s="13">
         <v>35885</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="16">
         <v>13.944050000000001</v>
       </c>
     </row>
@@ -1246,7 +1249,7 @@
       <c r="A97" s="13">
         <v>35915</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="16">
         <v>15.937709999999999</v>
       </c>
     </row>
@@ -1254,7 +1257,7 @@
       <c r="A98" s="13">
         <v>35946</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="16">
         <v>10.27225</v>
       </c>
     </row>
@@ -1262,7 +1265,7 @@
       <c r="A99" s="13">
         <v>35976</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="16">
         <v>8.9459599999999995</v>
       </c>
     </row>
@@ -1270,7 +1273,7 @@
       <c r="A100" s="13">
         <v>36007</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="16">
         <v>6.7551600000000001</v>
       </c>
     </row>
@@ -1278,7 +1281,7 @@
       <c r="A101" s="13">
         <v>36038</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="16">
         <v>3.4949699999999999</v>
       </c>
     </row>
@@ -1286,7 +1289,7 @@
       <c r="A102" s="13">
         <v>36068</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="16">
         <v>0.13055</v>
       </c>
     </row>
@@ -1294,7 +1297,7 @@
       <c r="A103" s="13">
         <v>36099</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B103" s="16">
         <v>-3.5844800000000001</v>
       </c>
     </row>
@@ -1302,7 +1305,7 @@
       <c r="A104" s="13">
         <v>36129</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="16">
         <v>-0.11362</v>
       </c>
     </row>
@@ -1310,7 +1313,7 @@
       <c r="A105" s="13">
         <v>36160</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B105" s="16">
         <v>-1.64062</v>
       </c>
     </row>
@@ -1318,7 +1321,7 @@
       <c r="A106" s="13">
         <v>36191</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B106" s="16">
         <v>-3.8708300000000002</v>
       </c>
     </row>
@@ -1326,7 +1329,7 @@
       <c r="A107" s="13">
         <v>36219</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="16">
         <v>-7.0225799999999996</v>
       </c>
     </row>
@@ -1334,7 +1337,7 @@
       <c r="A108" s="13">
         <v>36250</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B108" s="16">
         <v>-1.0467900000000001</v>
       </c>
     </row>
@@ -1342,7 +1345,7 @@
       <c r="A109" s="13">
         <v>36280</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B109" s="16">
         <v>-2.2172200000000002</v>
       </c>
     </row>
@@ -1350,7 +1353,7 @@
       <c r="A110" s="13">
         <v>36311</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="16">
         <v>0.18548999999999999</v>
       </c>
     </row>
@@ -1358,7 +1361,7 @@
       <c r="A111" s="13">
         <v>36341</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="16">
         <v>5.7529599999999999</v>
       </c>
     </row>
@@ -1366,7 +1369,7 @@
       <c r="A112" s="13">
         <v>36372</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="16">
         <v>4.5753899999999996</v>
       </c>
     </row>
@@ -1374,7 +1377,7 @@
       <c r="A113" s="13">
         <v>36403</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="16">
         <v>6.5923999999999996</v>
       </c>
     </row>
@@ -1382,7 +1385,7 @@
       <c r="A114" s="13">
         <v>36433</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="16">
         <v>6.9907000000000004</v>
       </c>
     </row>
@@ -1390,7 +1393,7 @@
       <c r="A115" s="13">
         <v>36464</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="16">
         <v>9.5394299999999994</v>
       </c>
     </row>
@@ -1398,7 +1401,7 @@
       <c r="A116" s="13">
         <v>36494</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="16">
         <v>10.47317</v>
       </c>
     </row>
@@ -1406,7 +1409,7 @@
       <c r="A117" s="13">
         <v>36525</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="16">
         <v>11.412979999999999</v>
       </c>
     </row>
@@ -1414,7 +1417,7 @@
       <c r="A118" s="13">
         <v>36556</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="16">
         <v>12.03031</v>
       </c>
     </row>
@@ -1422,7 +1425,7 @@
       <c r="A119" s="13">
         <v>36585</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="16">
         <v>11.76634</v>
       </c>
     </row>
@@ -1430,7 +1433,7 @@
       <c r="A120" s="13">
         <v>36616</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="16">
         <v>10.091810000000001</v>
       </c>
     </row>
@@ -1438,7 +1441,7 @@
       <c r="A121" s="13">
         <v>36646</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B121" s="16">
         <v>13.57325</v>
       </c>
     </row>
@@ -1446,7 +1449,7 @@
       <c r="A122" s="13">
         <v>36677</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="16">
         <v>13.059100000000001</v>
       </c>
     </row>
@@ -1454,7 +1457,7 @@
       <c r="A123" s="13">
         <v>36707</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="16">
         <v>14.74954</v>
       </c>
     </row>
@@ -1462,7 +1465,7 @@
       <c r="A124" s="13">
         <v>36738</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="16">
         <v>13.685269999999999</v>
       </c>
     </row>
@@ -1470,7 +1473,7 @@
       <c r="A125" s="13">
         <v>36769</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="16">
         <v>14.71672</v>
       </c>
     </row>
@@ -1478,7 +1481,7 @@
       <c r="A126" s="13">
         <v>36799</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="16">
         <v>15.63585</v>
       </c>
     </row>
@@ -1486,7 +1489,7 @@
       <c r="A127" s="13">
         <v>36830</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="16">
         <v>13.418699999999999</v>
       </c>
     </row>
@@ -1494,7 +1497,7 @@
       <c r="A128" s="13">
         <v>36860</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="16">
         <v>13.01802</v>
       </c>
     </row>
@@ -1502,7 +1505,7 @@
       <c r="A129" s="13">
         <v>36891</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="16">
         <v>11.35093</v>
       </c>
     </row>
@@ -1510,7 +1513,7 @@
       <c r="A130" s="13">
         <v>36922</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="16">
         <v>12.16108</v>
       </c>
     </row>
@@ -1518,7 +1521,7 @@
       <c r="A131" s="13">
         <v>36950</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="16">
         <v>9.7060200000000005</v>
       </c>
     </row>
@@ -1526,7 +1529,7 @@
       <c r="A132" s="13">
         <v>36981</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="16">
         <v>6.2969999999999997</v>
       </c>
     </row>
@@ -1534,7 +1537,7 @@
       <c r="A133" s="13">
         <v>37011</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="16">
         <v>3.15985</v>
       </c>
     </row>
@@ -1542,7 +1545,7 @@
       <c r="A134" s="13">
         <v>37042</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="16">
         <v>0.71397999999999995</v>
       </c>
     </row>
@@ -1550,7 +1553,7 @@
       <c r="A135" s="13">
         <v>37072</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="16">
         <v>-1.07507</v>
       </c>
     </row>
@@ -1558,7 +1561,7 @@
       <c r="A136" s="13">
         <v>37103</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="16">
         <v>-0.92818000000000001</v>
       </c>
     </row>
@@ -1566,7 +1569,7 @@
       <c r="A137" s="13">
         <v>37134</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="16">
         <v>1.8808800000000001</v>
       </c>
     </row>
@@ -1574,7 +1577,7 @@
       <c r="A138" s="13">
         <v>37164</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="16">
         <v>-4.9267300000000001</v>
       </c>
     </row>
@@ -1582,7 +1585,7 @@
       <c r="A139" s="13">
         <v>37195</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="16">
         <v>-9.7597199999999997</v>
       </c>
     </row>
@@ -1590,7 +1593,7 @@
       <c r="A140" s="13">
         <v>37225</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="16">
         <v>-5.6373100000000003</v>
       </c>
     </row>
@@ -1598,7 +1601,7 @@
       <c r="A141" s="13">
         <v>37256</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="16">
         <v>-2.5463900000000002</v>
       </c>
     </row>
@@ -1606,7 +1609,7 @@
       <c r="A142" s="13">
         <v>37287</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="16">
         <v>-5.5642399999999999</v>
       </c>
     </row>
@@ -1614,7 +1617,7 @@
       <c r="A143" s="13">
         <v>37315</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="16">
         <v>0.56642000000000003</v>
       </c>
     </row>
@@ -1622,7 +1625,7 @@
       <c r="A144" s="13">
         <v>37346</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="16">
         <v>3.3382100000000001</v>
       </c>
     </row>
@@ -1630,7 +1633,7 @@
       <c r="A145" s="13">
         <v>37376</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="16">
         <v>8.6800999999999995</v>
       </c>
     </row>
@@ -1638,7 +1641,7 @@
       <c r="A146" s="13">
         <v>37407</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="16">
         <v>8.4129900000000006</v>
       </c>
     </row>
@@ -1646,7 +1649,7 @@
       <c r="A147" s="13">
         <v>37437</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="16">
         <v>8.3763000000000005</v>
       </c>
     </row>
@@ -1654,7 +1657,7 @@
       <c r="A148" s="13">
         <v>37468</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="16">
         <v>8.5719200000000004</v>
       </c>
     </row>
@@ -1662,7 +1665,7 @@
       <c r="A149" s="13">
         <v>37499</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="16">
         <v>6.98142</v>
       </c>
     </row>
@@ -1670,7 +1673,7 @@
       <c r="A150" s="13">
         <v>37529</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="16">
         <v>6.4111799999999999</v>
       </c>
     </row>
@@ -1678,7 +1681,7 @@
       <c r="A151" s="13">
         <v>37560</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="16">
         <v>6.9171800000000001</v>
       </c>
     </row>
@@ -1686,7 +1689,7 @@
       <c r="A152" s="13">
         <v>37590</v>
       </c>
-      <c r="B152" s="9">
+      <c r="B152" s="16">
         <v>5.5695899999999998</v>
       </c>
     </row>
@@ -1694,7 +1697,7 @@
       <c r="A153" s="13">
         <v>37621</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="16">
         <v>6.6804300000000003</v>
       </c>
     </row>
@@ -1702,7 +1705,7 @@
       <c r="A154" s="13">
         <v>37652</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B154" s="16">
         <v>7.03179</v>
       </c>
     </row>
@@ -1710,7 +1713,7 @@
       <c r="A155" s="13">
         <v>37680</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="16">
         <v>4.6189099999999996</v>
       </c>
     </row>
@@ -1718,7 +1721,7 @@
       <c r="A156" s="13">
         <v>37711</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="16">
         <v>2.0972300000000001</v>
       </c>
     </row>
@@ -1726,7 +1729,7 @@
       <c r="A157" s="13">
         <v>37741</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B157" s="16">
         <v>2.0723600000000002</v>
       </c>
     </row>
@@ -1734,7 +1737,7 @@
       <c r="A158" s="13">
         <v>37772</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="16">
         <v>2.11374</v>
       </c>
     </row>
@@ -1742,7 +1745,7 @@
       <c r="A159" s="13">
         <v>37802</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="16">
         <v>2.6418200000000001</v>
       </c>
     </row>
@@ -1750,7 +1753,7 @@
       <c r="A160" s="13">
         <v>37833</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="16">
         <v>2.1001300000000001</v>
       </c>
     </row>
@@ -1758,7 +1761,7 @@
       <c r="A161" s="13">
         <v>37864</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="16">
         <v>4.0205700000000002</v>
       </c>
     </row>
@@ -1766,7 +1769,7 @@
       <c r="A162" s="13">
         <v>37894</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="16">
         <v>7.9742600000000001</v>
       </c>
     </row>
@@ -1774,7 +1777,7 @@
       <c r="A163" s="13">
         <v>37925</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="16">
         <v>12.672499999999999</v>
       </c>
     </row>
@@ -1782,7 +1785,7 @@
       <c r="A164" s="13">
         <v>37955</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="16">
         <v>12.53673</v>
       </c>
     </row>
@@ -1790,7 +1793,7 @@
       <c r="A165" s="13">
         <v>37986</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="16">
         <v>10.93488</v>
       </c>
     </row>
@@ -1798,7 +1801,7 @@
       <c r="A166" s="13">
         <v>38017</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="16">
         <v>10.64653</v>
       </c>
     </row>
@@ -1806,7 +1809,7 @@
       <c r="A167" s="13">
         <v>38046</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="16">
         <v>11.87815</v>
       </c>
     </row>
@@ -1814,7 +1817,7 @@
       <c r="A168" s="13">
         <v>38077</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="16">
         <v>13.863519999999999</v>
       </c>
     </row>
@@ -1822,7 +1825,7 @@
       <c r="A169" s="13">
         <v>38107</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="16">
         <v>14.714700000000001</v>
       </c>
     </row>
@@ -1830,7 +1833,7 @@
       <c r="A170" s="13">
         <v>38138</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="16">
         <v>15.79266</v>
       </c>
     </row>
@@ -1838,7 +1841,7 @@
       <c r="A171" s="13">
         <v>38168</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="16">
         <v>15.58723</v>
       </c>
     </row>
@@ -1846,7 +1849,7 @@
       <c r="A172" s="13">
         <v>38199</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="16">
         <v>17.469190000000001</v>
       </c>
     </row>
@@ -1854,7 +1857,7 @@
       <c r="A173" s="13">
         <v>38230</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="16">
         <v>19.008120000000002</v>
       </c>
     </row>
@@ -1862,7 +1865,7 @@
       <c r="A174" s="13">
         <v>38260</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="16">
         <v>17.503540000000001</v>
       </c>
     </row>
@@ -1870,7 +1873,7 @@
       <c r="A175" s="13">
         <v>38291</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="16">
         <v>17.508430000000001</v>
       </c>
     </row>
@@ -1878,7 +1881,7 @@
       <c r="A176" s="13">
         <v>38321</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="16">
         <v>15.36665</v>
       </c>
     </row>
@@ -1886,7 +1889,7 @@
       <c r="A177" s="13">
         <v>38352</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="16">
         <v>15.34545</v>
       </c>
     </row>
@@ -1894,7 +1897,7 @@
       <c r="A178" s="13">
         <v>38383</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="16">
         <v>13.279249999999999</v>
       </c>
     </row>
@@ -1902,7 +1905,7 @@
       <c r="A179" s="13">
         <v>38411</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="16">
         <v>16.566759999999999</v>
       </c>
     </row>
@@ -1910,7 +1913,7 @@
       <c r="A180" s="13">
         <v>38442</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B180" s="16">
         <v>15.7225</v>
       </c>
     </row>
@@ -1918,7 +1921,7 @@
       <c r="A181" s="13">
         <v>38472</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B181" s="16">
         <v>16.616479999999999</v>
       </c>
     </row>
@@ -1926,7 +1929,7 @@
       <c r="A182" s="13">
         <v>38503</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="16">
         <v>11.41935</v>
       </c>
     </row>
@@ -1934,7 +1937,7 @@
       <c r="A183" s="13">
         <v>38533</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="16">
         <v>13.07438</v>
       </c>
     </row>
@@ -1942,7 +1945,7 @@
       <c r="A184" s="13">
         <v>38564</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="16">
         <v>14.29203</v>
       </c>
     </row>
@@ -1950,7 +1953,7 @@
       <c r="A185" s="13">
         <v>38595</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="16">
         <v>14.812290000000001</v>
       </c>
     </row>
@@ -1958,7 +1961,7 @@
       <c r="A186" s="13">
         <v>38625</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="16">
         <v>16.105609999999999</v>
       </c>
     </row>
@@ -1966,15 +1969,15 @@
       <c r="A187" s="13">
         <v>38656</v>
       </c>
-      <c r="B187" s="9">
-        <v>16.265840000000001</v>
+      <c r="B187" s="16">
+        <v>16.265830000000001</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
         <v>38686</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="16">
         <v>17.514759999999999</v>
       </c>
     </row>
@@ -1982,7 +1985,7 @@
       <c r="A189" s="13">
         <v>38717</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="16">
         <v>18.965610000000002</v>
       </c>
     </row>
@@ -1990,15 +1993,15 @@
       <c r="A190" s="13">
         <v>38748</v>
       </c>
-      <c r="B190" s="9">
-        <v>23.946729999999999</v>
+      <c r="B190" s="16">
+        <v>23.946739999999998</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
         <v>38776</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="16">
         <v>22.435559999999999</v>
       </c>
     </row>
@@ -2006,7 +2009,7 @@
       <c r="A192" s="13">
         <v>38807</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="16">
         <v>22.789280000000002</v>
       </c>
     </row>
@@ -2014,7 +2017,7 @@
       <c r="A193" s="13">
         <v>38837</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="16">
         <v>21.77881</v>
       </c>
     </row>
@@ -2022,7 +2025,7 @@
       <c r="A194" s="13">
         <v>38868</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="16">
         <v>18.846489999999999</v>
       </c>
     </row>
@@ -2030,7 +2033,7 @@
       <c r="A195" s="13">
         <v>38898</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="16">
         <v>20.34404</v>
       </c>
     </row>
@@ -2038,15 +2041,15 @@
       <c r="A196" s="13">
         <v>38929</v>
       </c>
-      <c r="B196" s="9">
-        <v>17.491240000000001</v>
+      <c r="B196" s="16">
+        <v>17.491230000000002</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="13">
         <v>38960</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="16">
         <v>14.687329999999999</v>
       </c>
     </row>
@@ -2054,7 +2057,7 @@
       <c r="A198" s="13">
         <v>38990</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="16">
         <v>18.719639999999998</v>
       </c>
     </row>
@@ -2062,7 +2065,7 @@
       <c r="A199" s="13">
         <v>39021</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="16">
         <v>20.11251</v>
       </c>
     </row>
@@ -2070,7 +2073,7 @@
       <c r="A200" s="13">
         <v>39051</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="16">
         <v>22.943960000000001</v>
       </c>
     </row>
@@ -2078,7 +2081,7 @@
       <c r="A201" s="13">
         <v>39082</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="16">
         <v>22.790459999999999</v>
       </c>
     </row>
@@ -2086,15 +2089,15 @@
       <c r="A202" s="13">
         <v>39113</v>
       </c>
-      <c r="B202" s="9">
-        <v>22.53877</v>
+      <c r="B202" s="16">
+        <v>22.538789999999999</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="13">
         <v>39141</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="16">
         <v>20.22739</v>
       </c>
     </row>
@@ -2102,7 +2105,7 @@
       <c r="A204" s="13">
         <v>39172</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="16">
         <v>19.9039</v>
       </c>
     </row>
@@ -2110,7 +2113,7 @@
       <c r="A205" s="13">
         <v>39202</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="16">
         <v>19.921579999999999</v>
       </c>
     </row>
@@ -2118,7 +2121,7 @@
       <c r="A206" s="13">
         <v>39233</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="16">
         <v>21.136140000000001</v>
       </c>
     </row>
@@ -2126,7 +2129,7 @@
       <c r="A207" s="13">
         <v>39263</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="16">
         <v>20.374130000000001</v>
       </c>
     </row>
@@ -2134,15 +2137,15 @@
       <c r="A208" s="13">
         <v>39294</v>
       </c>
-      <c r="B208" s="9">
-        <v>18.532419999999998</v>
+      <c r="B208" s="16">
+        <v>18.532399999999999</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="13">
         <v>39325</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="16">
         <v>18.707640000000001</v>
       </c>
     </row>
@@ -2150,7 +2153,7 @@
       <c r="A210" s="13">
         <v>39355</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="16">
         <v>19.669650000000001</v>
       </c>
     </row>
@@ -2158,7 +2161,7 @@
       <c r="A211" s="13">
         <v>39386</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="16">
         <v>18.04928</v>
       </c>
     </row>
@@ -2166,7 +2169,7 @@
       <c r="A212" s="13">
         <v>39416</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="16">
         <v>19.71782</v>
       </c>
     </row>
@@ -2174,7 +2177,7 @@
       <c r="A213" s="13">
         <v>39447</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="16">
         <v>19.564530000000001</v>
       </c>
     </row>
@@ -2182,15 +2185,15 @@
       <c r="A214" s="13">
         <v>39478</v>
       </c>
-      <c r="B214" s="9">
-        <v>19.75292</v>
+      <c r="B214" s="16">
+        <v>19.752949999999998</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
         <v>39507</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="16">
         <v>17.64911</v>
       </c>
     </row>
@@ -2198,15 +2201,15 @@
       <c r="A216" s="13">
         <v>39538</v>
       </c>
-      <c r="B216" s="9">
-        <v>18.084630000000001</v>
+      <c r="B216" s="16">
+        <v>18.084620000000001</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
         <v>39568</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="16">
         <v>14.897640000000001</v>
       </c>
     </row>
@@ -2214,7 +2217,7 @@
       <c r="A218" s="13">
         <v>39599</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="16">
         <v>13.258459999999999</v>
       </c>
     </row>
@@ -2222,7 +2225,7 @@
       <c r="A219" s="13">
         <v>39629</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="16">
         <v>10.484999999999999</v>
       </c>
     </row>
@@ -2230,15 +2233,15 @@
       <c r="A220" s="13">
         <v>39660</v>
       </c>
-      <c r="B220" s="9">
-        <v>7.9204400000000001</v>
+      <c r="B220" s="16">
+        <v>7.9204100000000004</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="13">
         <v>39691</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="16">
         <v>5.0385900000000001</v>
       </c>
     </row>
@@ -2246,15 +2249,15 @@
       <c r="A222" s="13">
         <v>39721</v>
       </c>
-      <c r="B222" s="9">
-        <v>-1.11833</v>
+      <c r="B222" s="16">
+        <v>-1.1183799999999999</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>39752</v>
       </c>
-      <c r="B223" s="9">
+      <c r="B223" s="16">
         <v>-10.686820000000001</v>
       </c>
     </row>
@@ -2262,15 +2265,15 @@
       <c r="A224" s="13">
         <v>39782</v>
       </c>
-      <c r="B224" s="9">
-        <v>-20.44453</v>
+      <c r="B224" s="16">
+        <v>-20.444469999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="13">
         <v>39813</v>
       </c>
-      <c r="B225" s="9">
+      <c r="B225" s="16">
         <v>-31.879000000000001</v>
       </c>
     </row>
@@ -2278,15 +2281,15 @@
       <c r="A226" s="13">
         <v>39844</v>
       </c>
-      <c r="B226" s="9">
-        <v>-32.317480000000003</v>
+      <c r="B226" s="16">
+        <v>-32.317459999999997</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="13">
         <v>39872</v>
       </c>
-      <c r="B227" s="9">
+      <c r="B227" s="16">
         <v>-31.503799999999998</v>
       </c>
     </row>
@@ -2294,7 +2297,7 @@
       <c r="A228" s="13">
         <v>39903</v>
       </c>
-      <c r="B228" s="9">
+      <c r="B228" s="16">
         <v>-34.091329999999999</v>
       </c>
     </row>
@@ -2302,31 +2305,31 @@
       <c r="A229" s="13">
         <v>39933</v>
       </c>
-      <c r="B229" s="9">
-        <v>-27.539670000000001</v>
+      <c r="B229" s="16">
+        <v>-27.539650000000002</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="13">
         <v>39964</v>
       </c>
-      <c r="B230" s="9">
-        <v>-21.528580000000002</v>
+      <c r="B230" s="16">
+        <v>-21.52863</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="13">
         <v>39994</v>
       </c>
-      <c r="B231" s="9">
-        <v>-17.034389999999998</v>
+      <c r="B231" s="16">
+        <v>-17.034369999999999</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="13">
         <v>40025</v>
       </c>
-      <c r="B232" s="9">
+      <c r="B232" s="16">
         <v>-8.2225000000000001</v>
       </c>
     </row>
@@ -2334,1183 +2337,1192 @@
       <c r="A233" s="13">
         <v>40056</v>
       </c>
-      <c r="B233" s="9">
-        <v>0.57059000000000004</v>
+      <c r="B233" s="16">
+        <v>0.57060999999999995</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="13">
         <v>40086</v>
       </c>
-      <c r="B234" s="9">
-        <v>2.6395200000000001</v>
+      <c r="B234" s="16">
+        <v>2.6392600000000002</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="13">
         <v>40117</v>
       </c>
-      <c r="B235" s="9">
-        <v>6.7697000000000003</v>
+      <c r="B235" s="16">
+        <v>6.7697900000000004</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="13">
         <v>40147</v>
       </c>
-      <c r="B236" s="9">
-        <v>11.406319999999999</v>
+      <c r="B236" s="16">
+        <v>11.40645</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="13">
         <v>40178</v>
       </c>
-      <c r="B237" s="9">
-        <v>12.28567</v>
+      <c r="B237" s="16">
+        <v>12.28571</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="13">
         <v>40209</v>
       </c>
-      <c r="B238" s="9">
-        <v>15.32117</v>
+      <c r="B238" s="16">
+        <v>15.32128</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="13">
         <v>40237</v>
       </c>
-      <c r="B239" s="9">
-        <v>18.806229999999999</v>
+      <c r="B239" s="16">
+        <v>18.806149999999999</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="13">
         <v>40268</v>
       </c>
-      <c r="B240" s="9">
-        <v>18.37</v>
+      <c r="B240" s="16">
+        <v>18.370180000000001</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="13">
         <v>40298</v>
       </c>
-      <c r="B241" s="9">
-        <v>20.595500000000001</v>
+      <c r="B241" s="16">
+        <v>20.595649999999999</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="13">
         <v>40329</v>
       </c>
-      <c r="B242" s="9">
-        <v>20.964739999999999</v>
+      <c r="B242" s="16">
+        <v>20.96471</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="13">
         <v>40359</v>
       </c>
-      <c r="B243" s="9">
-        <v>21.972770000000001</v>
+      <c r="B243" s="16">
+        <v>21.97259</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="13">
         <v>40390</v>
       </c>
-      <c r="B244" s="9">
-        <v>21.221080000000001</v>
+      <c r="B244" s="16">
+        <v>21.22071</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="13">
         <v>40421</v>
       </c>
-      <c r="B245" s="9">
-        <v>22.319299999999998</v>
+      <c r="B245" s="16">
+        <v>22.318940000000001</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="13">
         <v>40451</v>
       </c>
-      <c r="B246" s="9">
-        <v>23.613350000000001</v>
+      <c r="B246" s="16">
+        <v>23.612670000000001</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="13">
         <v>40482</v>
       </c>
-      <c r="B247" s="9">
-        <v>23.658750000000001</v>
+      <c r="B247" s="16">
+        <v>23.659040000000001</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="13">
         <v>40512</v>
       </c>
-      <c r="B248" s="9">
-        <v>22.737670000000001</v>
+      <c r="B248" s="16">
+        <v>22.73827</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="13">
         <v>40543</v>
       </c>
-      <c r="B249" s="9">
-        <v>24.156690000000001</v>
+      <c r="B249" s="16">
+        <v>24.157299999999999</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="13">
         <v>40574</v>
       </c>
-      <c r="B250" s="9">
-        <v>26.576149999999998</v>
+      <c r="B250" s="16">
+        <v>26.576830000000001</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="13">
         <v>40602</v>
       </c>
-      <c r="B251" s="9">
-        <v>24.71519</v>
+      <c r="B251" s="16">
+        <v>24.715309999999999</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="13">
         <v>40633</v>
       </c>
-      <c r="B252" s="9">
-        <v>22.66526</v>
+      <c r="B252" s="16">
+        <v>22.665649999999999</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="13">
         <v>40663</v>
       </c>
-      <c r="B253" s="9">
-        <v>20.597249999999999</v>
+      <c r="B253" s="16">
+        <v>20.597329999999999</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="13">
         <v>40694</v>
       </c>
-      <c r="B254" s="9">
-        <v>18.82123</v>
+      <c r="B254" s="16">
+        <v>18.820869999999999</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="13">
         <v>40724</v>
       </c>
-      <c r="B255" s="9">
-        <v>17.16028</v>
+      <c r="B255" s="16">
+        <v>17.159330000000001</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="13">
         <v>40755</v>
       </c>
-      <c r="B256" s="9">
-        <v>13.15949</v>
+      <c r="B256" s="16">
+        <v>13.158060000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="13">
         <v>40786</v>
       </c>
-      <c r="B257" s="9">
-        <v>12.034890000000001</v>
+      <c r="B257" s="16">
+        <v>12.03355</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="13">
         <v>40816</v>
       </c>
-      <c r="B258" s="9">
-        <v>7.7875100000000002</v>
+      <c r="B258" s="16">
+        <v>7.7862200000000001</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="13">
         <v>40847</v>
       </c>
-      <c r="B259" s="9">
-        <v>9.6436600000000006</v>
+      <c r="B259" s="16">
+        <v>9.6444600000000005</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="13">
         <v>40877</v>
       </c>
-      <c r="B260" s="9">
-        <v>6.6866899999999996</v>
+      <c r="B260" s="16">
+        <v>6.6884899999999998</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="13">
         <v>40908</v>
       </c>
-      <c r="B261" s="9">
-        <v>9.7409099999999995</v>
+      <c r="B261" s="16">
+        <v>9.7430599999999998</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="13">
         <v>40939</v>
       </c>
-      <c r="B262" s="9">
-        <v>7.5976699999999999</v>
+      <c r="B262" s="16">
+        <v>7.5997300000000001</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="13">
         <v>40968</v>
       </c>
-      <c r="B263" s="9">
-        <v>8.7360600000000002</v>
+      <c r="B263" s="16">
+        <v>8.7368299999999994</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="13">
         <v>40999</v>
       </c>
-      <c r="B264" s="9">
-        <v>8.9737500000000008</v>
+      <c r="B264" s="16">
+        <v>8.9743999999999993</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="13">
         <v>41029</v>
       </c>
-      <c r="B265" s="9">
-        <v>8.8618699999999997</v>
+      <c r="B265" s="16">
+        <v>8.8617399999999993</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="13">
         <v>41060</v>
       </c>
-      <c r="B266" s="9">
-        <v>8.9587199999999996</v>
+      <c r="B266" s="16">
+        <v>8.9580599999999997</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="13">
         <v>41090</v>
       </c>
-      <c r="B267" s="9">
-        <v>5.4343899999999996</v>
+      <c r="B267" s="16">
+        <v>5.43215</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="13">
         <v>41121</v>
       </c>
-      <c r="B268" s="9">
-        <v>5.2040800000000003</v>
+      <c r="B268" s="16">
+        <v>5.2004700000000001</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="13">
         <v>41152</v>
       </c>
-      <c r="B269" s="9">
-        <v>3.45356</v>
+      <c r="B269" s="16">
+        <v>3.4499</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="13">
         <v>41182</v>
       </c>
-      <c r="B270" s="9">
-        <v>1.66866</v>
+      <c r="B270" s="16">
+        <v>1.66449</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="13">
         <v>41213</v>
       </c>
-      <c r="B271" s="9">
-        <v>-1.40727</v>
+      <c r="B271" s="16">
+        <v>-1.41008</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="13">
         <v>41243</v>
       </c>
-      <c r="B272" s="9">
-        <v>5.2707300000000004</v>
+      <c r="B272" s="16">
+        <v>5.2683600000000004</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="13">
         <v>41274</v>
       </c>
-      <c r="B273" s="9">
-        <v>6.1310000000000002</v>
+      <c r="B273" s="16">
+        <v>6.1613600000000002</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="13">
         <v>41305</v>
       </c>
-      <c r="B274" s="9">
-        <v>6.8713199999999999</v>
+      <c r="B274" s="16">
+        <v>6.8691399999999998</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="13">
         <v>41333</v>
       </c>
-      <c r="B275" s="9">
-        <v>11.165150000000001</v>
+      <c r="B275" s="16">
+        <v>11.162570000000001</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="13">
         <v>41364</v>
       </c>
-      <c r="B276" s="9">
-        <v>8.5340600000000002</v>
+      <c r="B276" s="16">
+        <v>8.5321300000000004</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="13">
         <v>41394</v>
       </c>
-      <c r="B277" s="9">
-        <v>9.6157599999999999</v>
+      <c r="B277" s="16">
+        <v>9.6131399999999996</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="13">
         <v>41425</v>
       </c>
-      <c r="B278" s="9">
-        <v>7.2007599999999998</v>
+      <c r="B278" s="16">
+        <v>7.1969200000000004</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="13">
         <v>41455</v>
       </c>
-      <c r="B279" s="9">
-        <v>9.61191</v>
+      <c r="B279" s="16">
+        <v>9.6141900000000007</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="13">
         <v>41486</v>
       </c>
-      <c r="B280" s="9">
-        <v>11.837899999999999</v>
+      <c r="B280" s="16">
+        <v>11.83014</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="13">
         <v>41517</v>
       </c>
-      <c r="B281" s="9">
-        <v>13.575060000000001</v>
+      <c r="B281" s="16">
+        <v>13.567080000000001</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="13">
         <v>41547</v>
       </c>
-      <c r="B282" s="9">
-        <v>16.165500000000002</v>
+      <c r="B282" s="16">
+        <v>16.157039999999999</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="13">
         <v>41578</v>
       </c>
-      <c r="B283" s="9">
-        <v>15.07091</v>
+      <c r="B283" s="16">
+        <v>15.06766</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="13">
         <v>41608</v>
       </c>
-      <c r="B284" s="9">
-        <v>18.800260000000002</v>
+      <c r="B284" s="16">
+        <v>18.79823</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="13">
         <v>41639</v>
       </c>
-      <c r="B285" s="9">
-        <v>15.6075</v>
+      <c r="B285" s="16">
+        <v>15.66043</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="13">
         <v>41670</v>
       </c>
-      <c r="B286" s="9">
-        <v>16.558759999999999</v>
+      <c r="B286" s="16">
+        <v>16.552980000000002</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="13">
         <v>41698</v>
       </c>
-      <c r="B287" s="9">
-        <v>15.074149999999999</v>
+      <c r="B287" s="16">
+        <v>15.06878</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="13">
         <v>41729</v>
       </c>
-      <c r="B288" s="9">
-        <v>12.36228</v>
+      <c r="B288" s="16">
+        <v>12.357950000000001</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="13">
         <v>41759</v>
       </c>
-      <c r="B289" s="9">
-        <v>11.842219999999999</v>
+      <c r="B289" s="16">
+        <v>11.83788</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="13">
         <v>41790</v>
       </c>
-      <c r="B290" s="9">
-        <v>11.55228</v>
+      <c r="B290" s="16">
+        <v>11.54763</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="13">
         <v>41820</v>
       </c>
-      <c r="B291" s="9">
-        <v>10.79186</v>
+      <c r="B291" s="16">
+        <v>10.802680000000001</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="13">
         <v>41851</v>
       </c>
-      <c r="B292" s="9">
-        <v>9.0031700000000008</v>
+      <c r="B292" s="16">
+        <v>8.9779999999999998</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="13">
         <v>41882</v>
       </c>
-      <c r="B293" s="9">
-        <v>8.4992800000000006</v>
+      <c r="B293" s="16">
+        <v>8.4920100000000005</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="13">
         <v>41912</v>
       </c>
-      <c r="B294" s="9">
-        <v>6.1461100000000002</v>
+      <c r="B294" s="16">
+        <v>6.13706</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="13">
         <v>41943</v>
       </c>
-      <c r="B295" s="9">
-        <v>7.1321099999999999</v>
+      <c r="B295" s="16">
+        <v>7.1293600000000001</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="13">
         <v>41973</v>
       </c>
-      <c r="B296" s="9">
-        <v>6.1200799999999997</v>
+      <c r="B296" s="16">
+        <v>6.1169399999999996</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="13">
         <v>42004</v>
       </c>
-      <c r="B297" s="9">
-        <v>7.1471799999999996</v>
+      <c r="B297" s="16">
+        <v>7.2198099999999998</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="13">
         <v>42035</v>
       </c>
-      <c r="B298" s="9">
-        <v>8.5489200000000007</v>
+      <c r="B298" s="16">
+        <v>8.53627</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="13">
         <v>42036</v>
       </c>
-      <c r="B299" s="9">
-        <v>10.24653</v>
+      <c r="B299" s="16">
+        <v>10.236370000000001</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="13">
         <v>42064</v>
       </c>
-      <c r="B300" s="9">
-        <v>11.7255</v>
+      <c r="B300" s="16">
+        <v>11.718819999999999</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="13">
         <v>42095</v>
       </c>
-      <c r="B301" s="9">
-        <v>11.43581</v>
+      <c r="B301" s="16">
+        <v>11.43149</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="13">
         <v>42125</v>
       </c>
-      <c r="B302" s="9">
-        <v>10.90372</v>
+      <c r="B302" s="16">
+        <v>10.900119999999999</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="13">
         <v>42156</v>
       </c>
-      <c r="B303" s="9">
-        <v>10.933310000000001</v>
+      <c r="B303" s="16">
+        <v>10.95434</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="13">
         <v>42186</v>
       </c>
-      <c r="B304" s="9">
-        <v>9.9363499999999991</v>
+      <c r="B304" s="16">
+        <v>9.8945900000000009</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="13">
         <v>42217</v>
       </c>
-      <c r="B305" s="9">
-        <v>11.284230000000001</v>
+      <c r="B305" s="16">
+        <v>11.2774</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="13">
         <v>42248</v>
       </c>
-      <c r="B306" s="9">
-        <v>9.7756699999999999</v>
+      <c r="B306" s="16">
+        <v>9.76675</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="13">
         <v>42278</v>
       </c>
-      <c r="B307" s="9">
-        <v>7.7314499999999997</v>
+      <c r="B307" s="16">
+        <v>7.7342300000000002</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="13">
         <v>42309</v>
       </c>
-      <c r="B308" s="9">
-        <v>7.56914</v>
+      <c r="B308" s="16">
+        <v>7.5755400000000002</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="13">
         <v>42339</v>
       </c>
-      <c r="B309" s="9">
-        <v>9.7300599999999999</v>
+      <c r="B309" s="16">
+        <v>9.8043399999999998</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="13">
         <v>42370</v>
       </c>
-      <c r="B310" s="9">
-        <v>6.7114000000000003</v>
+      <c r="B310" s="16">
+        <v>6.7053500000000001</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="13">
         <v>42401</v>
       </c>
-      <c r="B311" s="9">
-        <v>5.3895400000000002</v>
+      <c r="B311" s="16">
+        <v>5.3810900000000004</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="13">
         <v>42430</v>
       </c>
-      <c r="B312" s="9">
-        <v>6.3941600000000003</v>
+      <c r="B312" s="16">
+        <v>6.38218</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="13">
         <v>42461</v>
       </c>
-      <c r="B313" s="9">
-        <v>6.2447499999999998</v>
+      <c r="B313" s="16">
+        <v>6.2295600000000002</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="13">
         <v>42491</v>
       </c>
-      <c r="B314" s="9">
-        <v>7.2462299999999997</v>
+      <c r="B314" s="16">
+        <v>7.2294499999999999</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="13">
         <v>42522</v>
       </c>
-      <c r="B315" s="9">
-        <v>9.1422399999999993</v>
+      <c r="B315" s="16">
+        <v>9.1532599999999995</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="13">
         <v>42552</v>
       </c>
-      <c r="B316" s="9">
-        <v>8.9493899999999993</v>
+      <c r="B316" s="16">
+        <v>8.8863699999999994</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="13">
         <v>42583</v>
       </c>
-      <c r="B317" s="9">
-        <v>8.9911799999999999</v>
+      <c r="B317" s="16">
+        <v>8.9897100000000005</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="13">
         <v>42614</v>
       </c>
-      <c r="B318" s="9">
-        <v>10.44473</v>
+      <c r="B318" s="16">
+        <v>10.450939999999999</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="13">
         <v>42644</v>
       </c>
-      <c r="B319" s="9">
-        <v>12.962999999999999</v>
+      <c r="B319" s="16">
+        <v>12.9925</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="13">
         <v>42675</v>
       </c>
-      <c r="B320" s="9">
-        <v>6.8906000000000001</v>
+      <c r="B320" s="16">
+        <v>6.93276</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="13">
         <v>42705</v>
       </c>
-      <c r="B321" s="9">
-        <v>9.7157099999999996</v>
+      <c r="B321" s="16">
+        <v>9.7807300000000001</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="13">
         <v>42736</v>
       </c>
-      <c r="B322" s="9">
-        <v>12.91338</v>
+      <c r="B322" s="16">
+        <v>12.927339999999999</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="13">
         <v>42767</v>
       </c>
-      <c r="B323" s="9">
-        <v>14.593629999999999</v>
+      <c r="B323" s="16">
+        <v>14.591760000000001</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="13">
         <v>42795</v>
       </c>
-      <c r="B324" s="9">
-        <v>17.689</v>
+      <c r="B324" s="16">
+        <v>17.638300000000001</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="13">
         <v>42826</v>
       </c>
-      <c r="B325" s="9">
-        <v>18.323219999999999</v>
+      <c r="B325" s="16">
+        <v>18.291989999999998</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="13">
         <v>42856</v>
       </c>
-      <c r="B326" s="9">
-        <v>20.90616</v>
+      <c r="B326" s="16">
+        <v>20.8598</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="13">
         <v>42887</v>
       </c>
-      <c r="B327" s="9">
-        <v>20.293299999999999</v>
+      <c r="B327" s="16">
+        <v>20.293119999999998</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="13">
         <v>42917</v>
       </c>
-      <c r="B328" s="9">
-        <v>24.001280000000001</v>
+      <c r="B328" s="16">
+        <v>23.904450000000001</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="13">
         <v>42948</v>
       </c>
-      <c r="B329" s="9">
-        <v>19.342680000000001</v>
+      <c r="B329" s="16">
+        <v>19.321709999999999</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="13">
         <v>42979</v>
       </c>
-      <c r="B330" s="9">
-        <v>19.581479999999999</v>
+      <c r="B330" s="16">
+        <v>19.60164</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="13">
         <v>43009</v>
       </c>
-      <c r="B331" s="9">
-        <v>20.856960000000001</v>
+      <c r="B331" s="16">
+        <v>20.947590000000002</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="13">
         <v>43040</v>
       </c>
-      <c r="B332" s="9">
-        <v>20.62576</v>
+      <c r="B332" s="16">
+        <v>20.74344</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="13">
         <v>43070</v>
       </c>
-      <c r="B333" s="9">
-        <v>19.99306</v>
+      <c r="B333" s="16">
+        <v>20.054079999999999</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="13">
         <v>43101</v>
       </c>
-      <c r="B334" s="9">
-        <v>20.271280000000001</v>
+      <c r="B334" s="16">
+        <v>20.332840000000001</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="13">
         <v>43132</v>
       </c>
-      <c r="B335" s="9">
-        <v>18.835439999999998</v>
+      <c r="B335" s="16">
+        <v>18.851479999999999</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="13">
         <v>43160</v>
       </c>
-      <c r="B336" s="9">
-        <v>18.723400000000002</v>
+      <c r="B336" s="16">
+        <v>18.62771</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="13">
         <v>43191</v>
       </c>
-      <c r="B337" s="9">
-        <v>18.22795</v>
+      <c r="B337" s="16">
+        <v>18.170929999999998</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="13">
         <v>43221</v>
       </c>
-      <c r="B338" s="9">
-        <v>15.80439</v>
+      <c r="B338" s="16">
+        <v>15.732699999999999</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="13">
         <v>43252</v>
       </c>
-      <c r="B339" s="9">
-        <v>13.3552</v>
+      <c r="B339" s="16">
+        <v>13.343999999999999</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="13">
         <v>43282</v>
       </c>
-      <c r="B340" s="9">
-        <v>14.042820000000001</v>
+      <c r="B340" s="16">
+        <v>13.88104</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="13">
         <v>43313</v>
       </c>
-      <c r="B341" s="9">
-        <v>12.95238</v>
+      <c r="B341" s="16">
+        <v>12.82691</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="13">
         <v>43344</v>
       </c>
-      <c r="B342" s="9">
-        <v>12.535360000000001</v>
+      <c r="B342" s="16">
+        <v>12.45717</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="13">
         <v>43374</v>
       </c>
-      <c r="B343" s="9">
-        <v>9.77745</v>
+      <c r="B343" s="16">
+        <v>10.128740000000001</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="13">
         <v>43405</v>
       </c>
-      <c r="B344" s="9">
-        <v>10.412739999999999</v>
+      <c r="B344" s="16">
+        <v>10.51478</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="13">
         <v>43435</v>
       </c>
-      <c r="B345" s="9">
-        <v>7.3002399999999996</v>
+      <c r="B345" s="16">
+        <v>7.4191700000000003</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="13">
         <v>43466</v>
       </c>
-      <c r="B346" s="9">
-        <v>6.4745799999999996</v>
+      <c r="B346" s="16">
+        <v>6.59748</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="13">
         <v>43497</v>
       </c>
-      <c r="B347" s="9">
-        <v>8.1132299999999997</v>
+      <c r="B347" s="16">
+        <v>8.1539199999999994</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="13">
         <v>43525</v>
       </c>
-      <c r="B348" s="9">
-        <v>4.7331799999999999</v>
+      <c r="B348" s="16">
+        <v>4.5828800000000003</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="13">
         <v>43556</v>
       </c>
-      <c r="B349" s="9">
-        <v>4.0117000000000003</v>
+      <c r="B349" s="16">
+        <v>3.9344000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="13">
         <v>43586</v>
       </c>
-      <c r="B350" s="9">
-        <v>4.8872900000000001</v>
+      <c r="B350" s="16">
+        <v>4.8019600000000002</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="13">
         <v>43617</v>
       </c>
-      <c r="B351" s="9">
-        <v>0.30075000000000002</v>
+      <c r="B351" s="16">
+        <v>0.28919</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="13">
         <v>43647</v>
       </c>
-      <c r="B352" s="9">
-        <v>-2.9137900000000001</v>
+      <c r="B352" s="16">
+        <v>-3.1334200000000001</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="13">
         <v>43678</v>
       </c>
-      <c r="B353" s="9">
-        <v>-3.55741</v>
+      <c r="B353" s="16">
+        <v>-3.8182999999999998</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="13">
         <v>43709</v>
       </c>
-      <c r="B354" s="9">
-        <v>-8.7894600000000001</v>
+      <c r="B354" s="16">
+        <v>-9.0052299999999992</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="13">
         <v>43739</v>
       </c>
-      <c r="B355" s="9">
-        <v>-4.1030800000000003</v>
+      <c r="B355" s="16">
+        <v>-3.4783599999999999</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="13">
         <v>43770</v>
       </c>
-      <c r="B356" s="9">
-        <v>-2.3985400000000001</v>
+      <c r="B356" s="16">
+        <v>-2.3375499999999998</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="13">
         <v>43800</v>
       </c>
-      <c r="B357" s="9">
-        <v>0.1754</v>
+      <c r="B357" s="16">
+        <v>0.37924000000000002</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="13">
         <v>43831</v>
       </c>
-      <c r="B358" s="9">
-        <v>1.7709699999999999</v>
+      <c r="B358" s="16">
+        <v>1.95912</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="13">
         <v>43862</v>
       </c>
-      <c r="B359" s="9">
-        <v>0.29792000000000002</v>
+      <c r="B359" s="16">
+        <v>0.36673</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="13">
         <v>43891</v>
       </c>
-      <c r="B360" s="9">
-        <v>-17.85915</v>
+      <c r="B360" s="16">
+        <v>-18.041139999999999</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="13">
         <v>43922</v>
       </c>
-      <c r="B361" s="9">
-        <v>-48.582619999999999</v>
+      <c r="B361" s="16">
+        <v>-48.677100000000003</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="13">
         <v>43952</v>
       </c>
-      <c r="B362" s="9">
-        <v>-24.390540000000001</v>
+      <c r="B362" s="16">
+        <v>-24.47531</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="13">
         <v>43983</v>
       </c>
-      <c r="B363" s="9">
-        <v>-2.8411599999999999</v>
+      <c r="B363" s="16">
+        <v>-2.85101</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="13">
         <v>44013</v>
       </c>
-      <c r="B364" s="9">
-        <v>7.1534599999999999</v>
+      <c r="B364" s="16">
+        <v>6.8957899999999999</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="13">
         <v>44044</v>
       </c>
-      <c r="B365" s="9">
-        <v>5.2883399999999998</v>
+      <c r="B365" s="16">
+        <v>4.8972499999999997</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="13">
         <v>44075</v>
       </c>
-      <c r="B366" s="9">
-        <v>7.4152899999999997</v>
+      <c r="B366" s="16">
+        <v>7.0454999999999997</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="13">
         <v>44105</v>
       </c>
-      <c r="B367" s="9">
-        <v>5.5308999999999999</v>
+      <c r="B367" s="16">
+        <v>6.3294800000000002</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="13">
         <v>44136</v>
       </c>
-      <c r="B368" s="9">
-        <v>-0.42187999999999998</v>
+      <c r="B368" s="16">
+        <v>-0.34061000000000002</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="13">
         <v>44166</v>
       </c>
-      <c r="B369" s="9">
-        <v>2.9460299999999999</v>
+      <c r="B369" s="16">
+        <v>3.1764999999999999</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="13">
         <v>44197</v>
       </c>
-      <c r="B370" s="9">
-        <v>8.8925000000000001</v>
+      <c r="B370" s="16">
+        <v>9.1313099999999991</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="13">
         <v>44228</v>
       </c>
-      <c r="B371" s="9">
-        <v>13.37555</v>
+      <c r="B371" s="16">
+        <v>13.471069999999999</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="13">
         <v>44256</v>
       </c>
-      <c r="B372" s="9">
-        <v>23.544329999999999</v>
+      <c r="B372" s="16">
+        <v>23.342739999999999</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="13">
         <v>44287</v>
       </c>
-      <c r="B373" s="9">
-        <v>23.687349999999999</v>
+      <c r="B373" s="16">
+        <v>23.60716</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="13">
         <v>44317</v>
       </c>
-      <c r="B374" s="9">
-        <v>21.964939999999999</v>
+      <c r="B374" s="16">
+        <v>21.90268</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="13">
         <v>44348</v>
       </c>
-      <c r="B375" s="9">
-        <v>23.98001</v>
+      <c r="B375" s="16">
+        <v>24.0014</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="13">
         <v>44378</v>
       </c>
-      <c r="B376" s="9">
-        <v>23.227460000000001</v>
+      <c r="B376" s="16">
+        <v>22.989239999999999</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="13">
         <v>44409</v>
       </c>
-      <c r="B377" s="9">
-        <v>16.999469999999999</v>
+      <c r="B377" s="16">
+        <v>16.591419999999999</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="13">
         <v>44440</v>
       </c>
-      <c r="B378" s="9">
-        <v>20.97308</v>
+      <c r="B378" s="16">
+        <v>20.58934</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="13">
         <v>44470</v>
       </c>
+      <c r="B379" s="16">
+        <v>13.197990000000001</v>
+      </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="13">
         <v>44501</v>
       </c>
+      <c r="B380" s="16">
+        <v>15.826219999999999</v>
+      </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="13">
         <v>44531</v>
+      </c>
+      <c r="B381" s="16">
+        <v>12.12133</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
